--- a/biology/Botanique/Echinocystis_lobata/Echinocystis_lobata.xlsx
+++ b/biology/Botanique/Echinocystis_lobata/Echinocystis_lobata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Échinocyste lobé, Concombre grimpant, Concombre sauvage
-L’Échinocyste lobé, aussi communément appelé Concombre grimpant ou Concombre sauvage (Echinocystis lobata), est une espèce de plantes à fleurs de la famille des Cucurbitaceae, originaire de l'Amérique du Nord. C'est la seule espèce actuellement acceptée dans le genre Echinocystis[2],[3].
+L’Échinocyste lobé, aussi communément appelé Concombre grimpant ou Concombre sauvage (Echinocystis lobata), est une espèce de plantes à fleurs de la famille des Cucurbitaceae, originaire de l'Amérique du Nord. C'est la seule espèce actuellement acceptée dans le genre Echinocystis,.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Taxonomie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Echynocystis lobata est la seule espèce actuellement classée dans le genre Echinocystis. Il appartient la petite tribu Sicyoeae de la sous-famille des Cucurbitoideae de la famille des Cucurbitaceae.
 </t>
@@ -543,9 +557,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom générique Echinocystis vient d'un mélange de deux mots qui ont été combinés. La première partie du mot, Echino, vient du latin echinus, signifiant « hérisson » fait référence au fruit couvert d'épines. La deuxième partie du mot, cystis, vient du grec kystis, qui signifie « un sac ou une vessie ». L'épithète lobata vient du latin moderne et signifie « avec des lobes »[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom générique Echinocystis vient d'un mélange de deux mots qui ont été combinés. La première partie du mot, Echino, vient du latin echinus, signifiant « hérisson » fait référence au fruit couvert d'épines. La deuxième partie du mot, cystis, vient du grec kystis, qui signifie « un sac ou une vessie ». L'épithète lobata vient du latin moderne et signifie « avec des lobes ».
 </t>
         </is>
       </c>
@@ -576,18 +592,58 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Appareil végétatif
-L'Échinocyste lobé est une plante grimpante, herbacée, annuelle, à vrilles ramifiées, qui peut atteindre 8 m de hauteur[5]. Les tiges sarmenteuses et très ramifiées, sont souples et un peu charnues. Les nœuds de la tige sont parfois velus.
-Les feuilles, généralement opposées, sont longuement pétiolées et elles sont habituellement découpées en 5 lobes profonds à bord lisse ou finement dentées[6].
+          <t>Appareil végétatif</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échinocyste lobé est une plante grimpante, herbacée, annuelle, à vrilles ramifiées, qui peut atteindre 8 m de hauteur. Les tiges sarmenteuses et très ramifiées, sont souples et un peu charnues. Les nœuds de la tige sont parfois velus.
+Les feuilles, généralement opposées, sont longuement pétiolées et elles sont habituellement découpées en 5 lobes profonds à bord lisse ou finement dentées.
 			Jeune pousse.
 			Premières feuilles.
 			Tige avec feuilles.
 			Feuille.
-Appareil reproducteur
-L'Échinocyste lobé est considéré comme une plante monoïque : elle porte des fleurs mâles et des fleurs femelles sur un même plant.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Appareil reproducteur</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échinocyste lobé est considéré comme une plante monoïque : elle porte des fleurs mâles et des fleurs femelles sur un même plant.
 Les fleurs mâles, en panicules visibles, allongées et ramifiées sont insérées à l'aisselle des feuilles puis constituées de petites pétales blancs ou blanc verdâtre et d'anthères jaunes saillantes. Les fleurs femelles, solitaires, sont courtement pédonculées et elles sont situées à l'aisselle des vrilles situées juste en dessous de chaque panicule de fleurs mâles.
 L'apparition des fleurs mâles se fait plusieurs semaines avant l'apparition des fleurs femelles.
-Le fruit est une capsule charnue et oblongue qui mesure de 2,5 à 5 cm de longueur. Lorsque le fruit est encore vert, il ressemble à un petit melon un peu piquant. Une fois mature, le fruit se dessèche et s'ouvre à son sommet pour libérer 4 graines mesurant entre 15 et 18 mm qui sont relativement lourdes, brun foncé, plates et rugueuses[7]. La capsule sèche et vide ressemble à un petit sac en maille épineux persistant pendant l'hiver après le plant[6],[8].
+Le fruit est une capsule charnue et oblongue qui mesure de 2,5 à 5 cm de longueur. Lorsque le fruit est encore vert, il ressemble à un petit melon un peu piquant. Une fois mature, le fruit se dessèche et s'ouvre à son sommet pour libérer 4 graines mesurant entre 15 et 18 mm qui sont relativement lourdes, brun foncé, plates et rugueuses. La capsule sèche et vide ressemble à un petit sac en maille épineux persistant pendant l'hiver après le plant,.
 			Inforescence.
 			Fleurs.
 			Jeune fruit semblable à un melon épineux.
@@ -597,37 +653,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Echinocystis_lobata</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Echinocystis_lobata</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante peut pousser de 10 cm par jour. La floraison à lieu de juillet jusqu'en septembre.
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
@@ -649,12 +674,14 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Écologie</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La floraison parfumée attire une multitude de pollinisateurs.
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante peut pousser de 10 cm par jour. La floraison à lieu de juillet jusqu'en septembre.
 </t>
         </is>
       </c>
@@ -680,13 +707,14 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Habitat et distribution</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'Échinocyste lobé pousse sur des sols humides ou bien drainés, comme sur les berges des rivières, dans les prairies et les terrains incultes, à l'orée des bois et le long des clôtures habituellement dans les dépressions humides, mais aussi dans les endroits plus secs[6].
-L'Échinocyste lobé est largement distribué dans le sud de l'Ontario[6].
+          <t>Écologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La floraison parfumée attire une multitude de pollinisateurs.
 </t>
         </is>
       </c>
@@ -712,16 +740,15 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Espèce envahissante</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La plante a été introduite en Europe comme plante ornementale.
-Conséquences
-La plante peut déraciner des jeunes plants à cause de ses vrilles ou encore littéralement étouffer une plante plus grande à cause de sa croissance rapide et volubile qui lui permet de recouvrir rapidement des grandes surfaces. Dans son aire d'origine, la plante n'est pas envahissante[8].
-Mesures d'éradication
-La coupe des jeunes plants est effectuée pour empêcher la production de graines. Cette méthode peut donc éradiquer la colonie car c'est une plante annuelle.
+          <t>Habitat et distribution</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échinocyste lobé pousse sur des sols humides ou bien drainés, comme sur les berges des rivières, dans les prairies et les terrains incultes, à l'orée des bois et le long des clôtures habituellement dans les dépressions humides, mais aussi dans les endroits plus secs.
+L'Échinocyste lobé est largement distribué dans le sud de l'Ontario.
 </t>
         </is>
       </c>
@@ -747,15 +774,14 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Utilisations</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Médicaux
-Les Amérindiens faisaient du thé avec les racines extrêmement amères comme tonique contre les maux d’estomac, les affections rénales[8], les rhumatismes, les frissons, les fièvres et les règles obstruées[Quoi ?]. La racine en cataplasme était utilisée contre les maux de tête.
-Horticole
-L'Échinocyste lobé est utilisé dans les campagnes comme plante ornementale[3].
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante a été introduite en Europe comme plante ornementale.
 </t>
         </is>
       </c>
@@ -781,10 +807,160 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Conséquences</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La plante peut déraciner des jeunes plants à cause de ses vrilles ou encore littéralement étouffer une plante plus grande à cause de sa croissance rapide et volubile qui lui permet de recouvrir rapidement des grandes surfaces. Dans son aire d'origine, la plante n'est pas envahissante.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Espèce envahissante</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Mesures d'éradication</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La coupe des jeunes plants est effectuée pour empêcher la production de graines. Cette méthode peut donc éradiquer la colonie car c'est une plante annuelle.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Médicaux</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Amérindiens faisaient du thé avec les racines extrêmement amères comme tonique contre les maux d’estomac, les affections rénales, les rhumatismes, les frissons, les fièvres et les règles obstruées[Quoi ?]. La racine en cataplasme était utilisée contre les maux de tête.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Utilisations</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Horticole</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Échinocyste lobé est utilisé dans les campagnes comme plante ornementale.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Echinocystis_lobata</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Toxicité</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t xml:space="preserve">La plante contient des cucurbitacines, toxiques pour l'homme et pour les animaux. Le fruit provoque des maux d’estomac, des diarrhées et même des réactions de brûlure chez certaines personnes.
 </t>
